--- a/biology/Botanique/Lin_dressé/Lin_dressé.xlsx
+++ b/biology/Botanique/Lin_dressé/Lin_dressé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lin_dress%C3%A9</t>
+          <t>Lin_dressé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linum strictum
 Le Lin dressé, également appelé Lin droit ou Lin raide (Linum strictum), est une espèce de plantes à fleurs de la famille des Linaceae et du genre Linum.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lin_dress%C3%A9</t>
+          <t>Lin_dressé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Essentiellement dans les régions méridionales de l'Europe, notamment dans les rocailles calcaires (garrigues). 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lin_dress%C3%A9</t>
+          <t>Lin_dressé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante herbacée. La tige est étroite et érigée, portant des feuilles linéaires à extrémité effilée. Les fleurs petites et jaunes sont groupées en cymes. La hauteur est de 10 à 60 cm.
-La floraison a lieu de mai à juillet[1].
+La floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lin_dress%C3%A9</t>
+          <t>Lin_dressé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Aquitaine.
 </t>
